--- a/data/outputs/OR_altmetric/35.xlsx
+++ b/data/outputs/OR_altmetric/35.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE33"/>
+  <dimension ref="A1:CF33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1782,6 +1796,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2031,6 +2048,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2276,6 +2296,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2527,6 +2550,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2770,6 +2796,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3023,6 +3052,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3270,6 +3302,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3513,6 +3548,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3766,6 +3804,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4019,6 +4060,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4268,6 +4312,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4517,6 +4564,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4774,6 +4824,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5021,6 +5074,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5264,6 +5320,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5505,6 +5564,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5758,6 +5820,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6015,6 +6080,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6268,6 +6336,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6521,6 +6592,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6776,6 +6850,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7019,6 +7096,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7276,6 +7356,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7523,6 +7606,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7766,6 +7852,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8011,6 +8100,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8262,6 +8354,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8497,6 +8592,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8746,6 +8844,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
